--- a/biology/Botanique/Élagage/Élagage.xlsx
+++ b/biology/Botanique/Élagage/Élagage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lagage</t>
+          <t>Élagage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’élagage est une opération qui consiste en la coupe de certaines branches mortes ou vivantes (ébranchage) d'un arbre pour en orienter ou limiter le développement[1]. On appelle généralement élagage l'arboriculture ornementale (ou arboriculture d’agrément dans une approche écosystémique). On distingue l'élagage sylvicole, l'élagage fruitier et l'élagage ornemental.
-L'élagage est aussi un processus biologique naturel d'abandon des branches, ou parfois d'une partie du houppier (descente de cime), afin d'optimiser les ressources et dépenses d'énergie de l'arbre, processus appelé élagage naturel[2]. On peut le comprendre comme un processus de sélection des branches d'un arbre sans intervention humaine, en raison d'événements climatiques, par manque de lumière ou d'eau, et/ou par l'action de champignons saprophytes spécialisés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’élagage est une opération qui consiste en la coupe de certaines branches mortes ou vivantes (ébranchage) d'un arbre pour en orienter ou limiter le développement. On appelle généralement élagage l'arboriculture ornementale (ou arboriculture d’agrément dans une approche écosystémique). On distingue l'élagage sylvicole, l'élagage fruitier et l'élagage ornemental.
+L'élagage est aussi un processus biologique naturel d'abandon des branches, ou parfois d'une partie du houppier (descente de cime), afin d'optimiser les ressources et dépenses d'énergie de l'arbre, processus appelé élagage naturel. On peut le comprendre comme un processus de sélection des branches d'un arbre sans intervention humaine, en raison d'événements climatiques, par manque de lumière ou d'eau, et/ou par l'action de champignons saprophytes spécialisés.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lagage</t>
+          <t>Élagage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Élagage sylvicole
-C'est une technique consistant à remonter régulièrement la couronne des arbres destinés à la production de bois d'œuvre, afin de limiter le développement des nœuds (insertions des branches), et d'améliorer ainsi la valeur commerciale de la bille de bois.
-L'élagage peut être naturel par chute des branches mortes provoquée par le manque de lumière ou artificiel par la coupe des branches[3].
+          <t>Élagage sylvicole</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une technique consistant à remonter régulièrement la couronne des arbres destinés à la production de bois d'œuvre, afin de limiter le développement des nœuds (insertions des branches), et d'améliorer ainsi la valeur commerciale de la bille de bois.
+L'élagage peut être naturel par chute des branches mortes provoquée par le manque de lumière ou artificiel par la coupe des branches.
 Lors de l'abattage des arbres, l'élagueur est parfois amené à couper (éhouper) la partie sommitale des arbres afin de ne pas éclater les fibres du bois lors de la chute de la bille au sol. L'élagueur est dans ce cas appelé « éhoupeur ».
-Élagage fruitier
-L'élagage fruitier ou arboriculture fruitière consiste en une taille de stimulation afin de favoriser la production de fruits d'un sujet, mais aussi d'en améliorer la qualité (mûrissement et calibre)[4].
-Élagage ornemental
-L'élagage ornemental se pratique afin d'adapter un sujet à ses contraintes environnementales (route, habitation, ligne électrique, concurrence d'autre végétaux). Il est détaché d’objectif de production (bois d’œuvre, fruits…) et tend à adapter le volume ou orienter son esthétique générale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Élagage</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Types</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Élagage fruitier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'élagage fruitier ou arboriculture fruitière consiste en une taille de stimulation afin de favoriser la production de fruits d'un sujet, mais aussi d'en améliorer la qualité (mûrissement et calibre).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Élagage</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Types</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Élagage ornemental</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'élagage ornemental se pratique afin d'adapter un sujet à ses contraintes environnementales (route, habitation, ligne électrique, concurrence d'autre végétaux). Il est détaché d’objectif de production (bois d’œuvre, fruits…) et tend à adapter le volume ou orienter son esthétique générale.
 L'élagueur est aussi dans ce cas appelé arboriste grimpeur. Les opérations techniques qui peuvent être réalisées par les arboristes grimpeurs sont très diverses : déplacement et exploration sur corde, tailles architecturées, démontage d'arbre, haubanage, etc.
 Le manque de place et le choix de sujets à trop grand développement contraignent parfois à des élagages réguliers afin de contenir le volume général de l'arbre : ce sont des tailles architecturées. On distingue deux principales tailles architecturées : la taille sur « têtes de chat », obtenues par des coupes répétées aux mêmes endroits, et la taille par prolongations, qui consiste à étirer les branches de l'arbre dans une direction.
 D'autre tailles architecturées existent, plus complexe à la mise en œuvre, telles que les tailles topiaires, les « rideaux sur têtes de chat », ou d'inspiration japonaise comme les « niwakis ».
@@ -530,34 +617,36 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Élagage</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Taille raisonnée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'attachement aux règles de l'art, aux conduites de tailles intelligentes sont des principes d'arboriculture ornementale moderne, en opposition avec la taille dite « drastique ».
-La taille raisonnée s'immiscera dans le paysage français au début des années 1980 : « 80 pour cent des arbres des villes françaises ont fait l'objet d'élagages drastiques pendant la période des trente glorieuses et jusque dans les années 1990. Les retombées s'en font encore ressentir aujourd'hui. »[5]
+La taille raisonnée s'immiscera dans le paysage français au début des années 1980 : « 80 pour cent des arbres des villes françaises ont fait l'objet d'élagages drastiques pendant la période des trente glorieuses et jusque dans les années 1990. Les retombées s'en font encore ressentir aujourd'hui. »
 Aujourd'hui, la dendrobiologie ayant beaucoup évolué, principalement grâce aux travaux des chercheurs A. Shigo, C. Mattheck, F. Hallé et C. Drenou, on s'accorde pour dire que l'élagage drastique est néfaste au bon développement de l'arbre, et souvent injustifié.
 Il est intéressant de considérer qu'une forme d'amalgame peut parfois être fait entre la taille raisonnée et la « taille douce ».
 La terminologie « taille douce » est généralement utilisée en opposition à celle de « taille drastique ». Lorsque les diamètres de coupes restent dans des proportions de l'ordre de quelques centimètres, il semblerait que ce seul critère suffise à considérer une taille comme « douce ». Une taille raisonnée s'impliquera toujours quant à elle dans une démarche de diagnostic et de préconisations pertinentes dans un contexte, et ne se contente pas de minimiser les diamètres de coupes.
@@ -565,31 +654,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Élagage</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Chirurgie arboricole</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La chirurgie arboricole est aujourd'hui une pratique quasi totalement abandonnée. Elle est la cause de dégâts irrémédiables sur le patrimoine arboré français (les platanes de la place des Lices, Saint-Tropez).
 Les travaux du professeur Shigo ont mis en lumière les mécanismes de défense des arbres (CODIT: Compartimentalization of damages in trees), en complète opposition avec les principes de chirurgie arboricole (curetage et application de badigeons).
@@ -598,33 +689,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Élagage</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Expertise et consultation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude peut parfois précéder des travaux d'élagage afin de réaliser en amont les diagnostics d'un arbre ou d'un ensemble d'arbres[6]. Cette étude à généralement pour objectifs d'accompagner les gestionnaires ou propriétaires d'arbres dans leurs décisions de gestion. Les résultats et compte rendus de ces études peuvent être donnés sous forme  :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude peut parfois précéder des travaux d'élagage afin de réaliser en amont les diagnostics d'un arbre ou d'un ensemble d'arbres. Cette étude à généralement pour objectifs d'accompagner les gestionnaires ou propriétaires d'arbres dans leurs décisions de gestion. Les résultats et compte rendus de ces études peuvent être donnés sous forme  :
 - D'un document écrit (l'étude est parfois nommée alors "expertise"), pour des besoins juridiques, légaux, de procédures traçables, ou de conseils.
 - Orale, avec uniquement des prescriptions écrites (l'étude est dite "consultation"), pour des besoins de conseils ou de preuve d'attention à une problématique identifiée.
 Elles sont généralement réalisées par des professionnels de l'arboriculture d'agrément (bureau d'étude, consultant, élagueur,...), mais cette activité de conseil apparait aujourd’hui non réglementée. Consécutivement, on observe une très grande variabilité qualitative dans les prestations de services proposées.
@@ -632,69 +725,146 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Élagage</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Diagnostics</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diagnostic de tenue mécanique
-Méthodes les plus usitées : VTA
-Diagnostic de risques associés aux arbres
-Méthodes les plus usitées : QTRA, TRAQ, VALID
-Diagnostic physiologique
-Méthodes les plus usitées : DIA, ARCHI
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Diagnostic de tenue mécanique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Méthodes les plus usitées : VTA
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Élagage</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Diagnostics</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Diagnostic de risques associés aux arbres</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Méthodes les plus usitées : QTRA, TRAQ, VALID
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Élagage</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Diagnostics</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Diagnostic physiologique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Méthodes les plus usitées : DIA, ARCHI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Élagage</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Quelques règles pour l'arboriste élagueur</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sources[7],[8].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sources,.
 Avoir des objectifs de taille clairs et réalisables avant toute taille intempestive.
 Port des EPI (Équipements de Protection Individuelle): Casque, lunettes, protection auditive, pantalon anti-coupure, manchettes anti-coupure, chaussures anti-coupure.
 Matériel d'ascension normé et révisé.
@@ -709,64 +879,68 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Élagage</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Période de taille</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Source[7].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Source.
 La période de taille variera en fonction de la taille choisie. Pour une taille en vert (avec foliaire présent), on pourra tailler toute l'année, sauf période de stress hydrique (manque d'eau), ainsi que le moment de la chute des feuilles et du débourrement, qui sont des périodes sensibles chez les ligneux caducs. Pour des tailles d'entretien complet (mise à nu du végétal), on attendra le repos végétatif (hiver).
 Les répercussions des tailles d'entretien en période de gel sont encore mal connues chez les ligneux. La taille hors gel apparait en France comme une habitude culturelle, et non comme un fait scientifique.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Élagage</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Formations</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour exercer la profession d'arboriste élagueur, il est recommandé de posséder le Certificat de Spécialisation « Arboriste-élagueur » (niveau IV).
 Actuellement en France, une centaine de centres de formation proposent cette certification.
@@ -777,33 +951,35 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Élagage</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lagage</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des championnats régionaux et nationaux sont organisés annuellement par la Société Française d'Arboriculture[9]. Une compétition internationale existe, organisée par l'ISA (International Society of Arboriculture).
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des championnats régionaux et nationaux sont organisés annuellement par la Société Française d'Arboriculture. Une compétition internationale existe, organisée par l'ISA (International Society of Arboriculture).
 Le patrimoine arboré abrite une immense biodiversité. Pour permettre la vie des organismes saproxylophages et des oiseaux, chauve-souris et autres communautés animales en dépendant, certains élagages ne cherchent pas à éliminer les zones mortes, mais simplement à garantir la sécurité du public et éventuellement à conserver un aspect naturel à l'arbre.
 </t>
         </is>
